--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_36ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_36ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2252,28 +2252,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1261.803567096835</v>
+        <v>1525.992156169756</v>
       </c>
       <c r="AB2" t="n">
-        <v>1726.455307346502</v>
+        <v>2087.929790094041</v>
       </c>
       <c r="AC2" t="n">
-        <v>1561.684835908594</v>
+        <v>1888.66070135533</v>
       </c>
       <c r="AD2" t="n">
-        <v>1261803.567096835</v>
+        <v>1525992.156169756</v>
       </c>
       <c r="AE2" t="n">
-        <v>1726455.307346502</v>
+        <v>2087929.79009404</v>
       </c>
       <c r="AF2" t="n">
         <v>2.937642250249875e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>54</v>
+        <v>53.42592592592592</v>
       </c>
       <c r="AH2" t="n">
-        <v>1561684.835908594</v>
+        <v>1888660.70135533</v>
       </c>
     </row>
     <row r="3">
@@ -2358,28 +2358,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>781.9089904461199</v>
+        <v>977.6110850155253</v>
       </c>
       <c r="AB3" t="n">
-        <v>1069.842376118478</v>
+        <v>1337.61061567541</v>
       </c>
       <c r="AC3" t="n">
-        <v>967.7381212749351</v>
+        <v>1209.950935863638</v>
       </c>
       <c r="AD3" t="n">
-        <v>781908.9904461199</v>
+        <v>977611.0850155253</v>
       </c>
       <c r="AE3" t="n">
-        <v>1069842.376118478</v>
+        <v>1337610.61567541</v>
       </c>
       <c r="AF3" t="n">
         <v>4.131250110966276e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>38</v>
+        <v>37.99768518518518</v>
       </c>
       <c r="AH3" t="n">
-        <v>967738.1212749351</v>
+        <v>1209950.935863638</v>
       </c>
     </row>
     <row r="4">
@@ -2464,28 +2464,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>675.3918606331069</v>
+        <v>841.7294024213244</v>
       </c>
       <c r="AB4" t="n">
-        <v>924.1009399041994</v>
+        <v>1151.691302873272</v>
       </c>
       <c r="AC4" t="n">
-        <v>835.906043183557</v>
+        <v>1041.775501335941</v>
       </c>
       <c r="AD4" t="n">
-        <v>675391.8606331069</v>
+        <v>841729.4024213244</v>
       </c>
       <c r="AE4" t="n">
-        <v>924100.9399041994</v>
+        <v>1151691.302873272</v>
       </c>
       <c r="AF4" t="n">
         <v>4.602618086863822e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>35</v>
+        <v>34.09722222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>835906.043183557</v>
+        <v>1041775.501335941</v>
       </c>
     </row>
     <row r="5">
@@ -2570,28 +2570,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>613.9632237996336</v>
+        <v>770.5122443175029</v>
       </c>
       <c r="AB5" t="n">
-        <v>840.0515689484494</v>
+        <v>1054.24884527635</v>
       </c>
       <c r="AC5" t="n">
-        <v>759.8782262277907</v>
+        <v>953.6328151307217</v>
       </c>
       <c r="AD5" t="n">
-        <v>613963.2237996337</v>
+        <v>770512.2443175029</v>
       </c>
       <c r="AE5" t="n">
-        <v>840051.5689484493</v>
+        <v>1054248.84527635</v>
       </c>
       <c r="AF5" t="n">
         <v>4.856202124530225e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>33</v>
+        <v>32.31481481481482</v>
       </c>
       <c r="AH5" t="n">
-        <v>759878.2262277907</v>
+        <v>953632.8151307218</v>
       </c>
     </row>
     <row r="6">
@@ -2676,28 +2676,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>605.9483084903786</v>
+        <v>762.4973290082478</v>
       </c>
       <c r="AB6" t="n">
-        <v>829.0852082292187</v>
+        <v>1043.282484557119</v>
       </c>
       <c r="AC6" t="n">
-        <v>749.9584795842194</v>
+        <v>943.7130684871504</v>
       </c>
       <c r="AD6" t="n">
-        <v>605948.3084903787</v>
+        <v>762497.3290082478</v>
       </c>
       <c r="AE6" t="n">
-        <v>829085.2082292186</v>
+        <v>1043282.484557119</v>
       </c>
       <c r="AF6" t="n">
         <v>4.902308313196843e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>33</v>
+        <v>32.01388888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>749958.4795842194</v>
+        <v>943713.0684871504</v>
       </c>
     </row>
   </sheetData>
@@ -2973,28 +2973,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>988.462909969734</v>
+        <v>1220.761924153548</v>
       </c>
       <c r="AB2" t="n">
-        <v>1352.458561326487</v>
+        <v>1670.300320841997</v>
       </c>
       <c r="AC2" t="n">
-        <v>1223.381814420999</v>
+        <v>1510.88920250206</v>
       </c>
       <c r="AD2" t="n">
-        <v>988462.909969734</v>
+        <v>1220761.924153548</v>
       </c>
       <c r="AE2" t="n">
-        <v>1352458.561326487</v>
+        <v>1670300.320841997</v>
       </c>
       <c r="AF2" t="n">
         <v>3.682752070408336e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>47</v>
+        <v>46.63194444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>1223381.814420999</v>
+        <v>1510889.20250206</v>
       </c>
     </row>
     <row r="3">
@@ -3079,28 +3079,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>669.7548035563384</v>
+        <v>843.9032030317993</v>
       </c>
       <c r="AB3" t="n">
-        <v>916.3880697223584</v>
+        <v>1154.665592769838</v>
       </c>
       <c r="AC3" t="n">
-        <v>828.9292785067894</v>
+        <v>1044.465929179221</v>
       </c>
       <c r="AD3" t="n">
-        <v>669754.8035563384</v>
+        <v>843903.2030317993</v>
       </c>
       <c r="AE3" t="n">
-        <v>916388.0697223584</v>
+        <v>1154665.592769838</v>
       </c>
       <c r="AF3" t="n">
         <v>4.869927707609668e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>36</v>
+        <v>35.2662037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>828929.2785067894</v>
+        <v>1044465.929179221</v>
       </c>
     </row>
     <row r="4">
@@ -3185,28 +3185,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>581.5858494604843</v>
+        <v>746.0195343670562</v>
       </c>
       <c r="AB4" t="n">
-        <v>795.75141698868</v>
+        <v>1020.736838980047</v>
       </c>
       <c r="AC4" t="n">
-        <v>719.806018595408</v>
+        <v>923.3191476809415</v>
       </c>
       <c r="AD4" t="n">
-        <v>581585.8494604842</v>
+        <v>746019.5343670562</v>
       </c>
       <c r="AE4" t="n">
-        <v>795751.41698868</v>
+        <v>1020736.838980047</v>
       </c>
       <c r="AF4" t="n">
         <v>5.304824819550315e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>33</v>
+        <v>32.37268518518518</v>
       </c>
       <c r="AH4" t="n">
-        <v>719806.0185954079</v>
+        <v>923319.1476809415</v>
       </c>
     </row>
     <row r="5">
@@ -3291,28 +3291,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>578.6653557099945</v>
+        <v>733.4868223040199</v>
       </c>
       <c r="AB5" t="n">
-        <v>791.7554685961691</v>
+        <v>1003.589029431166</v>
       </c>
       <c r="AC5" t="n">
-        <v>716.1914379091293</v>
+        <v>907.8079010083045</v>
       </c>
       <c r="AD5" t="n">
-        <v>578665.3557099946</v>
+        <v>733486.8223040199</v>
       </c>
       <c r="AE5" t="n">
-        <v>791755.468596169</v>
+        <v>1003589.029431166</v>
       </c>
       <c r="AF5" t="n">
         <v>5.326488067023304e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>33</v>
+        <v>32.24537037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>716191.4379091293</v>
+        <v>907807.9010083044</v>
       </c>
     </row>
   </sheetData>
@@ -3588,28 +3588,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>537.6247441530165</v>
+        <v>705.9892500493131</v>
       </c>
       <c r="AB2" t="n">
-        <v>735.6018932799144</v>
+        <v>965.9656379650053</v>
       </c>
       <c r="AC2" t="n">
-        <v>665.3970810090201</v>
+        <v>873.7752332189123</v>
       </c>
       <c r="AD2" t="n">
-        <v>537624.7441530165</v>
+        <v>705989.2500493131</v>
       </c>
       <c r="AE2" t="n">
-        <v>735601.8932799144</v>
+        <v>965965.6379650052</v>
       </c>
       <c r="AF2" t="n">
         <v>6.912720256415565e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.67592592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>665397.0810090201</v>
+        <v>873775.2332189123</v>
       </c>
     </row>
     <row r="3">
@@ -3694,28 +3694,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>536.0304189300216</v>
+        <v>704.2934395998329</v>
       </c>
       <c r="AB3" t="n">
-        <v>733.420467173148</v>
+        <v>963.6453552941497</v>
       </c>
       <c r="AC3" t="n">
-        <v>663.4238471482328</v>
+        <v>871.676395069626</v>
       </c>
       <c r="AD3" t="n">
-        <v>536030.4189300216</v>
+        <v>704293.439599833</v>
       </c>
       <c r="AE3" t="n">
-        <v>733420.4671731481</v>
+        <v>963645.3552941497</v>
       </c>
       <c r="AF3" t="n">
         <v>6.958283155822702e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>35</v>
+        <v>34.44444444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>663423.8471482327</v>
+        <v>871676.3950696259</v>
       </c>
     </row>
   </sheetData>
@@ -3991,28 +3991,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>672.850223383455</v>
+        <v>852.9517360168495</v>
       </c>
       <c r="AB2" t="n">
-        <v>920.6233596901041</v>
+        <v>1167.046194793085</v>
       </c>
       <c r="AC2" t="n">
-        <v>832.7603583442803</v>
+        <v>1055.664943921654</v>
       </c>
       <c r="AD2" t="n">
-        <v>672850.2233834551</v>
+        <v>852951.7360168495</v>
       </c>
       <c r="AE2" t="n">
-        <v>920623.359690104</v>
+        <v>1167046.194793085</v>
       </c>
       <c r="AF2" t="n">
         <v>5.455887243506763e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.04398148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>832760.3583442804</v>
+        <v>1055664.943921654</v>
       </c>
     </row>
     <row r="3">
@@ -4097,28 +4097,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>546.2331576764111</v>
+        <v>707.3353646340671</v>
       </c>
       <c r="AB3" t="n">
-        <v>747.3803044390241</v>
+        <v>967.8074513262499</v>
       </c>
       <c r="AC3" t="n">
-        <v>676.0513771382084</v>
+        <v>875.4412664979608</v>
       </c>
       <c r="AD3" t="n">
-        <v>546233.1576764111</v>
+        <v>707335.3646340671</v>
       </c>
       <c r="AE3" t="n">
-        <v>747380.3044390242</v>
+        <v>967807.4513262499</v>
       </c>
       <c r="AF3" t="n">
         <v>6.264047267150468e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>34</v>
+        <v>33.13657407407408</v>
       </c>
       <c r="AH3" t="n">
-        <v>676051.3771382084</v>
+        <v>875441.2664979608</v>
       </c>
     </row>
   </sheetData>
@@ -4394,28 +4394,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>539.8644862814457</v>
+        <v>706.3195439149306</v>
       </c>
       <c r="AB2" t="n">
-        <v>738.6664072704804</v>
+        <v>966.4175606034801</v>
       </c>
       <c r="AC2" t="n">
-        <v>668.1691220853988</v>
+        <v>874.1840249950483</v>
       </c>
       <c r="AD2" t="n">
-        <v>539864.4862814457</v>
+        <v>706319.5439149305</v>
       </c>
       <c r="AE2" t="n">
-        <v>738666.4072704804</v>
+        <v>966417.5606034801</v>
       </c>
       <c r="AF2" t="n">
         <v>7.572675534738276e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.25</v>
       </c>
       <c r="AH2" t="n">
-        <v>668169.1220853989</v>
+        <v>874184.0249950483</v>
       </c>
     </row>
   </sheetData>
@@ -4691,28 +4691,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1054.327590726732</v>
+        <v>1296.915157552135</v>
       </c>
       <c r="AB2" t="n">
-        <v>1442.57752328285</v>
+        <v>1774.49653442149</v>
       </c>
       <c r="AC2" t="n">
-        <v>1304.899949131004</v>
+        <v>1605.141075697831</v>
       </c>
       <c r="AD2" t="n">
-        <v>1054327.590726732</v>
+        <v>1296915.157552135</v>
       </c>
       <c r="AE2" t="n">
-        <v>1442577.52328285</v>
+        <v>1774496.534421491</v>
       </c>
       <c r="AF2" t="n">
         <v>3.476068659056723e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>49</v>
+        <v>48.20601851851851</v>
       </c>
       <c r="AH2" t="n">
-        <v>1304899.949131004</v>
+        <v>1605141.075697831</v>
       </c>
     </row>
     <row r="3">
@@ -4797,28 +4797,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>692.7151699820724</v>
+        <v>877.1164844222194</v>
       </c>
       <c r="AB3" t="n">
-        <v>947.8034560059244</v>
+        <v>1200.109469634772</v>
       </c>
       <c r="AC3" t="n">
-        <v>857.3464244152235</v>
+        <v>1085.572706217048</v>
       </c>
       <c r="AD3" t="n">
-        <v>692715.1699820724</v>
+        <v>877116.4844222195</v>
       </c>
       <c r="AE3" t="n">
-        <v>947803.4560059244</v>
+        <v>1200109.469634772</v>
       </c>
       <c r="AF3" t="n">
         <v>4.661786418419221e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>36</v>
+        <v>35.94907407407407</v>
       </c>
       <c r="AH3" t="n">
-        <v>857346.4244152235</v>
+        <v>1085572.706217048</v>
       </c>
     </row>
     <row r="4">
@@ -4903,28 +4903,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>599.2208801217854</v>
+        <v>764.2385025830597</v>
       </c>
       <c r="AB4" t="n">
-        <v>819.8804439421164</v>
+        <v>1045.664835057333</v>
       </c>
       <c r="AC4" t="n">
-        <v>741.6322050817104</v>
+        <v>945.8680507992743</v>
       </c>
       <c r="AD4" t="n">
-        <v>599220.8801217854</v>
+        <v>764238.5025830597</v>
       </c>
       <c r="AE4" t="n">
-        <v>819880.4439421163</v>
+        <v>1045664.835057333</v>
       </c>
       <c r="AF4" t="n">
         <v>5.119480134055423e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>33</v>
+        <v>32.73148148148149</v>
       </c>
       <c r="AH4" t="n">
-        <v>741632.2050817104</v>
+        <v>945868.0507992744</v>
       </c>
     </row>
     <row r="5">
@@ -5009,28 +5009,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>585.6714165906792</v>
+        <v>740.946955964203</v>
       </c>
       <c r="AB5" t="n">
-        <v>801.3414701787134</v>
+        <v>1013.796313422898</v>
       </c>
       <c r="AC5" t="n">
-        <v>724.8625649546734</v>
+        <v>917.0410161418781</v>
       </c>
       <c r="AD5" t="n">
-        <v>585671.4165906792</v>
+        <v>740946.955964203</v>
       </c>
       <c r="AE5" t="n">
-        <v>801341.4701787134</v>
+        <v>1013796.313422898</v>
       </c>
       <c r="AF5" t="n">
         <v>5.208818008951828e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>33</v>
+        <v>32.17592592592593</v>
       </c>
       <c r="AH5" t="n">
-        <v>724862.5649546734</v>
+        <v>917041.0161418781</v>
       </c>
     </row>
   </sheetData>
@@ -5306,28 +5306,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>543.6390946246104</v>
+        <v>727.3611310496188</v>
       </c>
       <c r="AB2" t="n">
-        <v>743.8309929295655</v>
+        <v>995.2075884104695</v>
       </c>
       <c r="AC2" t="n">
-        <v>672.8408069377225</v>
+        <v>900.2263729551966</v>
       </c>
       <c r="AD2" t="n">
-        <v>543639.0946246104</v>
+        <v>727361.1310496188</v>
       </c>
       <c r="AE2" t="n">
-        <v>743830.9929295655</v>
+        <v>995207.5884104695</v>
       </c>
       <c r="AF2" t="n">
         <v>7.922010872226755e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.91666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>672840.8069377225</v>
+        <v>900226.3729551965</v>
       </c>
     </row>
   </sheetData>
@@ -5603,28 +5603,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>822.4143238033624</v>
+        <v>1023.704323451112</v>
       </c>
       <c r="AB2" t="n">
-        <v>1125.263560187047</v>
+        <v>1400.677417993143</v>
       </c>
       <c r="AC2" t="n">
-        <v>1017.86998532012</v>
+        <v>1266.99873108298</v>
       </c>
       <c r="AD2" t="n">
-        <v>822414.3238033624</v>
+        <v>1023704.323451112</v>
       </c>
       <c r="AE2" t="n">
-        <v>1125263.560187047</v>
+        <v>1400677.417993143</v>
       </c>
       <c r="AF2" t="n">
         <v>4.433331354033889e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>43</v>
+        <v>42.11805555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>1017869.98532012</v>
+        <v>1266998.73108298</v>
       </c>
     </row>
     <row r="3">
@@ -5709,28 +5709,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>583.3692954888753</v>
+        <v>746.2713545834719</v>
       </c>
       <c r="AB3" t="n">
-        <v>798.1916065248104</v>
+        <v>1021.081390509671</v>
       </c>
       <c r="AC3" t="n">
-        <v>722.0133198670375</v>
+        <v>923.6308156961592</v>
       </c>
       <c r="AD3" t="n">
-        <v>583369.2954888754</v>
+        <v>746271.3545834719</v>
       </c>
       <c r="AE3" t="n">
-        <v>798191.6065248103</v>
+        <v>1021081.390509671</v>
       </c>
       <c r="AF3" t="n">
         <v>5.593535363308862e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>34</v>
+        <v>33.37962962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>722013.3198670375</v>
+        <v>923630.8156961591</v>
       </c>
     </row>
     <row r="4">
@@ -5815,28 +5815,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>557.4920855687307</v>
+        <v>720.4614644710317</v>
       </c>
       <c r="AB4" t="n">
-        <v>762.7852662901383</v>
+        <v>985.7671602058401</v>
       </c>
       <c r="AC4" t="n">
-        <v>689.9861110512519</v>
+        <v>891.6869259686927</v>
       </c>
       <c r="AD4" t="n">
-        <v>557492.0855687306</v>
+        <v>720461.4644710317</v>
       </c>
       <c r="AE4" t="n">
-        <v>762785.2662901384</v>
+        <v>985767.1602058401</v>
       </c>
       <c r="AF4" t="n">
         <v>5.740839807818393e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>33</v>
+        <v>32.52314814814815</v>
       </c>
       <c r="AH4" t="n">
-        <v>689986.1110512519</v>
+        <v>891686.9259686926</v>
       </c>
     </row>
   </sheetData>
@@ -6112,28 +6112,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>934.9965375821888</v>
+        <v>1156.870132324593</v>
       </c>
       <c r="AB2" t="n">
-        <v>1279.303511855971</v>
+        <v>1582.880752554699</v>
       </c>
       <c r="AC2" t="n">
-        <v>1157.208580198193</v>
+        <v>1431.812835117967</v>
       </c>
       <c r="AD2" t="n">
-        <v>934996.5375821888</v>
+        <v>1156870.132324592</v>
       </c>
       <c r="AE2" t="n">
-        <v>1279303.511855972</v>
+        <v>1582880.752554699</v>
       </c>
       <c r="AF2" t="n">
         <v>3.907351394950882e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>46</v>
+        <v>45.11574074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>1157208.580198193</v>
+        <v>1431812.835117967</v>
       </c>
     </row>
     <row r="3">
@@ -6218,28 +6218,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>638.8679599232848</v>
+        <v>812.5534223062431</v>
       </c>
       <c r="AB3" t="n">
-        <v>874.1273276322428</v>
+        <v>1111.771439726417</v>
       </c>
       <c r="AC3" t="n">
-        <v>790.7018423284306</v>
+        <v>1005.665533899943</v>
       </c>
       <c r="AD3" t="n">
-        <v>638867.9599232848</v>
+        <v>812553.4223062431</v>
       </c>
       <c r="AE3" t="n">
-        <v>874127.3276322428</v>
+        <v>1111771.439726417</v>
       </c>
       <c r="AF3" t="n">
         <v>5.080759918866247e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>35</v>
+        <v>34.6875</v>
       </c>
       <c r="AH3" t="n">
-        <v>790701.8423284306</v>
+        <v>1005665.533899943</v>
       </c>
     </row>
     <row r="4">
@@ -6324,28 +6324,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>572.4039804369002</v>
+        <v>736.3368671599433</v>
       </c>
       <c r="AB4" t="n">
-        <v>783.1883787151397</v>
+        <v>1007.488586538146</v>
       </c>
       <c r="AC4" t="n">
-        <v>708.4419790623593</v>
+        <v>911.3352898580564</v>
       </c>
       <c r="AD4" t="n">
-        <v>572403.9804369002</v>
+        <v>736336.8671599432</v>
       </c>
       <c r="AE4" t="n">
-        <v>783188.3787151397</v>
+        <v>1007488.586538146</v>
       </c>
       <c r="AF4" t="n">
         <v>5.44641259452112e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>33</v>
+        <v>32.36111111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>708441.9790623593</v>
+        <v>911335.2898580563</v>
       </c>
     </row>
     <row r="5">
@@ -6430,28 +6430,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>571.9456252787975</v>
+        <v>726.2957524059722</v>
       </c>
       <c r="AB5" t="n">
-        <v>782.5612369666211</v>
+        <v>993.7498903490437</v>
       </c>
       <c r="AC5" t="n">
-        <v>707.8746908421205</v>
+        <v>898.9077955508611</v>
       </c>
       <c r="AD5" t="n">
-        <v>571945.6252787975</v>
+        <v>726295.7524059722</v>
       </c>
       <c r="AE5" t="n">
-        <v>782561.2369666211</v>
+        <v>993749.8903490436</v>
       </c>
       <c r="AF5" t="n">
         <v>5.460880318047656e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>33</v>
+        <v>32.2800925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>707874.6908421204</v>
+        <v>898907.7955508612</v>
       </c>
     </row>
   </sheetData>
@@ -6727,28 +6727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1187.562481254359</v>
+        <v>1451.090694789619</v>
       </c>
       <c r="AB2" t="n">
-        <v>1624.875378411276</v>
+        <v>1985.446306214475</v>
       </c>
       <c r="AC2" t="n">
-        <v>1469.79955282262</v>
+        <v>1795.958097340758</v>
       </c>
       <c r="AD2" t="n">
-        <v>1187562.481254359</v>
+        <v>1451090.694789619</v>
       </c>
       <c r="AE2" t="n">
-        <v>1624875.378411276</v>
+        <v>1985446.306214476</v>
       </c>
       <c r="AF2" t="n">
         <v>3.100671383011391e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>52</v>
+        <v>51.67824074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>1469799.55282262</v>
+        <v>1795958.097340757</v>
       </c>
     </row>
     <row r="3">
@@ -6833,28 +6833,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>758.9022109018152</v>
+        <v>944.2945902339827</v>
       </c>
       <c r="AB3" t="n">
-        <v>1038.363485358481</v>
+        <v>1292.025517695288</v>
       </c>
       <c r="AC3" t="n">
-        <v>939.2635316681717</v>
+        <v>1168.716415655653</v>
       </c>
       <c r="AD3" t="n">
-        <v>758902.2109018152</v>
+        <v>944294.5902339828</v>
       </c>
       <c r="AE3" t="n">
-        <v>1038363.485358481</v>
+        <v>1292025.517695288</v>
       </c>
       <c r="AF3" t="n">
         <v>4.293620675658137e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>38</v>
+        <v>37.31481481481482</v>
       </c>
       <c r="AH3" t="n">
-        <v>939263.5316681718</v>
+        <v>1168716.415655653</v>
       </c>
     </row>
     <row r="4">
@@ -6939,28 +6939,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>647.9391384695498</v>
+        <v>823.6018372138695</v>
       </c>
       <c r="AB4" t="n">
-        <v>886.5389143113958</v>
+        <v>1126.888368424697</v>
       </c>
       <c r="AC4" t="n">
-        <v>801.9288845946966</v>
+        <v>1019.339724140002</v>
       </c>
       <c r="AD4" t="n">
-        <v>647939.1384695498</v>
+        <v>823601.8372138696</v>
       </c>
       <c r="AE4" t="n">
-        <v>886538.9143113958</v>
+        <v>1126888.368424697</v>
       </c>
       <c r="AF4" t="n">
         <v>4.751169406329773e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>34</v>
+        <v>33.72685185185185</v>
       </c>
       <c r="AH4" t="n">
-        <v>801928.8845946966</v>
+        <v>1019339.724140002</v>
       </c>
     </row>
     <row r="5">
@@ -7045,28 +7045,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>600.6295271457992</v>
+        <v>756.7675669664341</v>
       </c>
       <c r="AB5" t="n">
-        <v>821.8078169454927</v>
+        <v>1035.442771352248</v>
       </c>
       <c r="AC5" t="n">
-        <v>743.3756323107294</v>
+        <v>936.6215665074461</v>
       </c>
       <c r="AD5" t="n">
-        <v>600629.5271457992</v>
+        <v>756767.566966434</v>
       </c>
       <c r="AE5" t="n">
-        <v>821807.8169454928</v>
+        <v>1035442.771352248</v>
       </c>
       <c r="AF5" t="n">
         <v>4.987904150489682e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>33</v>
+        <v>32.12962962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>743375.6323107295</v>
+        <v>936621.5665074461</v>
       </c>
     </row>
     <row r="6">
@@ -7151,28 +7151,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>598.880737274683</v>
+        <v>755.0187770953179</v>
       </c>
       <c r="AB6" t="n">
-        <v>819.4150454926676</v>
+        <v>1033.049999899423</v>
       </c>
       <c r="AC6" t="n">
-        <v>741.2112236070861</v>
+        <v>934.4571578038027</v>
       </c>
       <c r="AD6" t="n">
-        <v>598880.7372746831</v>
+        <v>755018.7770953178</v>
       </c>
       <c r="AE6" t="n">
-        <v>819415.0454926676</v>
+        <v>1033049.999899423</v>
       </c>
       <c r="AF6" t="n">
         <v>5.004101790879571e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>33</v>
+        <v>32.02546296296297</v>
       </c>
       <c r="AH6" t="n">
-        <v>741211.2236070861</v>
+        <v>934457.1578038028</v>
       </c>
     </row>
   </sheetData>
@@ -7448,28 +7448,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>717.4261840369745</v>
+        <v>907.7195385946106</v>
       </c>
       <c r="AB2" t="n">
-        <v>981.6141556088412</v>
+        <v>1241.981918464902</v>
       </c>
       <c r="AC2" t="n">
-        <v>887.9302783016527</v>
+        <v>1123.448907299181</v>
       </c>
       <c r="AD2" t="n">
-        <v>717426.1840369746</v>
+        <v>907719.5385946106</v>
       </c>
       <c r="AE2" t="n">
-        <v>981614.1556088412</v>
+        <v>1241981.918464902</v>
       </c>
       <c r="AF2" t="n">
         <v>5.079599435379293e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.3287037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>887930.2783016528</v>
+        <v>1123448.907299181</v>
       </c>
     </row>
     <row r="3">
@@ -7554,28 +7554,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>543.6563327639437</v>
+        <v>705.457781161666</v>
       </c>
       <c r="AB3" t="n">
-        <v>743.8545789122943</v>
+        <v>965.238458786174</v>
       </c>
       <c r="AC3" t="n">
-        <v>672.8621419073627</v>
+        <v>873.1174550003062</v>
       </c>
       <c r="AD3" t="n">
-        <v>543656.3327639437</v>
+        <v>705457.781161666</v>
       </c>
       <c r="AE3" t="n">
-        <v>743854.5789122944</v>
+        <v>965238.458786174</v>
       </c>
       <c r="AF3" t="n">
         <v>6.067145914355928e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>33</v>
+        <v>32.92824074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>672862.1419073627</v>
+        <v>873117.4550003062</v>
       </c>
     </row>
     <row r="4">
@@ -7660,28 +7660,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>544.9752561966471</v>
+        <v>706.7767045943696</v>
       </c>
       <c r="AB4" t="n">
-        <v>745.6591881397145</v>
+        <v>967.0430680135941</v>
       </c>
       <c r="AC4" t="n">
-        <v>674.4945217629029</v>
+        <v>874.7498348558461</v>
       </c>
       <c r="AD4" t="n">
-        <v>544975.2561966472</v>
+        <v>706776.7045943695</v>
       </c>
       <c r="AE4" t="n">
-        <v>745659.1881397145</v>
+        <v>967043.068013594</v>
       </c>
       <c r="AF4" t="n">
         <v>6.071805780649596e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>33</v>
+        <v>32.89351851851853</v>
       </c>
       <c r="AH4" t="n">
-        <v>674494.5217629028</v>
+        <v>874749.8348558461</v>
       </c>
     </row>
   </sheetData>
@@ -7957,28 +7957,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>573.62555791124</v>
+        <v>742.7408733203974</v>
       </c>
       <c r="AB2" t="n">
-        <v>784.8597949077262</v>
+        <v>1016.250830291691</v>
       </c>
       <c r="AC2" t="n">
-        <v>709.9538776393726</v>
+        <v>919.26127736565</v>
       </c>
       <c r="AD2" t="n">
-        <v>573625.55791124</v>
+        <v>742740.8733203975</v>
       </c>
       <c r="AE2" t="n">
-        <v>784859.7949077261</v>
+        <v>1016250.830291691</v>
       </c>
       <c r="AF2" t="n">
         <v>6.41698533691989e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.39351851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>709953.8776393726</v>
+        <v>919261.2773656501</v>
       </c>
     </row>
     <row r="3">
@@ -8063,28 +8063,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>533.2582689749584</v>
+        <v>702.4067387730394</v>
       </c>
       <c r="AB3" t="n">
-        <v>729.6274893060057</v>
+        <v>961.0638879875646</v>
       </c>
       <c r="AC3" t="n">
-        <v>659.9928657652526</v>
+        <v>869.3412993796692</v>
       </c>
       <c r="AD3" t="n">
-        <v>533258.2689749583</v>
+        <v>702406.7387730393</v>
       </c>
       <c r="AE3" t="n">
-        <v>729627.4893060058</v>
+        <v>961063.8879875647</v>
       </c>
       <c r="AF3" t="n">
         <v>6.696829402195518e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>34</v>
+        <v>33.91203703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>659992.8657652526</v>
+        <v>869341.2993796691</v>
       </c>
     </row>
   </sheetData>
@@ -13869,28 +13869,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>537.4675682237882</v>
+        <v>704.8734965150446</v>
       </c>
       <c r="AB2" t="n">
-        <v>735.3868382394318</v>
+        <v>964.4390147558472</v>
       </c>
       <c r="AC2" t="n">
-        <v>665.2025505197694</v>
+        <v>872.3943087862071</v>
       </c>
       <c r="AD2" t="n">
-        <v>537467.5682237883</v>
+        <v>704873.4965150446</v>
       </c>
       <c r="AE2" t="n">
-        <v>735386.8382394317</v>
+        <v>964439.0147558472</v>
       </c>
       <c r="AF2" t="n">
         <v>7.239607452224118e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.23148148148149</v>
       </c>
       <c r="AH2" t="n">
-        <v>665202.5505197694</v>
+        <v>872394.3087862071</v>
       </c>
     </row>
     <row r="3">
@@ -13975,28 +13975,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>538.485239064893</v>
+        <v>705.8911673561493</v>
       </c>
       <c r="AB3" t="n">
-        <v>736.7792603807001</v>
+        <v>965.8314368971155</v>
       </c>
       <c r="AC3" t="n">
-        <v>666.4620818461518</v>
+        <v>873.6538401125895</v>
       </c>
       <c r="AD3" t="n">
-        <v>538485.239064893</v>
+        <v>705891.1673561493</v>
       </c>
       <c r="AE3" t="n">
-        <v>736779.2603807001</v>
+        <v>965831.4368971155</v>
       </c>
       <c r="AF3" t="n">
         <v>7.25128814859137e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>36</v>
+        <v>35.17361111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>666462.0818461519</v>
+        <v>873653.8401125895</v>
       </c>
     </row>
   </sheetData>
@@ -14272,28 +14272,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>567.9471115835657</v>
+        <v>759.3849706607529</v>
       </c>
       <c r="AB2" t="n">
-        <v>777.0902941268307</v>
+        <v>1039.024018558517</v>
       </c>
       <c r="AC2" t="n">
-        <v>702.925887108443</v>
+        <v>939.8610245066602</v>
       </c>
       <c r="AD2" t="n">
-        <v>567947.1115835657</v>
+        <v>759384.9706607528</v>
       </c>
       <c r="AE2" t="n">
-        <v>777090.2941268308</v>
+        <v>1039024.018558517</v>
       </c>
       <c r="AF2" t="n">
         <v>8.248490488666287e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.90277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>702925.8871084431</v>
+        <v>939861.0245066602</v>
       </c>
     </row>
   </sheetData>
@@ -14569,28 +14569,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>871.4004758126212</v>
+        <v>1083.050050041399</v>
       </c>
       <c r="AB2" t="n">
-        <v>1192.288574482617</v>
+        <v>1481.876859262652</v>
       </c>
       <c r="AC2" t="n">
-        <v>1078.49822632152</v>
+        <v>1340.448611641858</v>
       </c>
       <c r="AD2" t="n">
-        <v>871400.4758126212</v>
+        <v>1083050.050041399</v>
       </c>
       <c r="AE2" t="n">
-        <v>1192288.574482617</v>
+        <v>1481876.859262652</v>
       </c>
       <c r="AF2" t="n">
         <v>4.164342736251689e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>44</v>
+        <v>43.51851851851853</v>
       </c>
       <c r="AH2" t="n">
-        <v>1078498.22632152</v>
+        <v>1340448.611641858</v>
       </c>
     </row>
     <row r="3">
@@ -14675,28 +14675,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>616.5270769886292</v>
+        <v>780.007155448617</v>
       </c>
       <c r="AB3" t="n">
-        <v>843.5595459908528</v>
+        <v>1067.240201571856</v>
       </c>
       <c r="AC3" t="n">
-        <v>763.051406864744</v>
+        <v>965.3842946148678</v>
       </c>
       <c r="AD3" t="n">
-        <v>616527.0769886292</v>
+        <v>780007.1554486171</v>
       </c>
       <c r="AE3" t="n">
-        <v>843559.5459908529</v>
+        <v>1067240.201571856</v>
       </c>
       <c r="AF3" t="n">
         <v>5.323105474021957e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>35</v>
+        <v>34.05092592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>763051.4068647439</v>
+        <v>965384.2946148678</v>
       </c>
     </row>
     <row r="4">
@@ -14781,28 +14781,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>563.9555207614574</v>
+        <v>727.3672683838836</v>
       </c>
       <c r="AB4" t="n">
-        <v>771.6288234674632</v>
+        <v>995.2159857819706</v>
       </c>
       <c r="AC4" t="n">
-        <v>697.9856515435835</v>
+        <v>900.2339688933475</v>
       </c>
       <c r="AD4" t="n">
-        <v>563955.5207614574</v>
+        <v>727367.2683838836</v>
       </c>
       <c r="AE4" t="n">
-        <v>771628.8234674633</v>
+        <v>995215.9857819707</v>
       </c>
       <c r="AF4" t="n">
         <v>5.600112404172713e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>33</v>
+        <v>32.36111111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>697985.6515435835</v>
+        <v>900233.9688933475</v>
       </c>
     </row>
   </sheetData>
@@ -15078,28 +15078,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1113.721162837912</v>
+        <v>1366.797380617309</v>
       </c>
       <c r="AB2" t="n">
-        <v>1523.842428904839</v>
+        <v>1870.112475005356</v>
       </c>
       <c r="AC2" t="n">
-        <v>1378.409046216442</v>
+        <v>1691.631565110187</v>
       </c>
       <c r="AD2" t="n">
-        <v>1113721.162837912</v>
+        <v>1366797.380617309</v>
       </c>
       <c r="AE2" t="n">
-        <v>1523842.428904839</v>
+        <v>1870112.475005356</v>
       </c>
       <c r="AF2" t="n">
         <v>3.28336365683305e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>50</v>
+        <v>49.88425925925927</v>
       </c>
       <c r="AH2" t="n">
-        <v>1378409.046216442</v>
+        <v>1691631.565110188</v>
       </c>
     </row>
     <row r="3">
@@ -15184,28 +15184,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>726.7650821727904</v>
+        <v>911.7211638202481</v>
       </c>
       <c r="AB3" t="n">
-        <v>994.3920480413724</v>
+        <v>1247.457118637864</v>
       </c>
       <c r="AC3" t="n">
-        <v>899.4886666143079</v>
+        <v>1128.401562052128</v>
       </c>
       <c r="AD3" t="n">
-        <v>726765.0821727903</v>
+        <v>911721.1638202481</v>
       </c>
       <c r="AE3" t="n">
-        <v>994392.0480413724</v>
+        <v>1247457.118637864</v>
       </c>
       <c r="AF3" t="n">
         <v>4.463846440239993e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>37</v>
+        <v>36.68981481481482</v>
       </c>
       <c r="AH3" t="n">
-        <v>899488.6666143079</v>
+        <v>1128401.562052128</v>
       </c>
     </row>
     <row r="4">
@@ -15290,28 +15290,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>628.2396261973201</v>
+        <v>793.6557304511538</v>
       </c>
       <c r="AB4" t="n">
-        <v>859.5851725393867</v>
+        <v>1085.914784022959</v>
       </c>
       <c r="AC4" t="n">
-        <v>777.5475701075937</v>
+        <v>982.2766011267792</v>
       </c>
       <c r="AD4" t="n">
-        <v>628239.6261973202</v>
+        <v>793655.7304511538</v>
       </c>
       <c r="AE4" t="n">
-        <v>859585.1725393867</v>
+        <v>1085914.784022959</v>
       </c>
       <c r="AF4" t="n">
         <v>4.928512083378961e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>34</v>
+        <v>33.22916666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>777547.5701075938</v>
+        <v>982276.6011267791</v>
       </c>
     </row>
     <row r="5">
@@ -15396,28 +15396,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>591.5541263792328</v>
+        <v>747.2680672588872</v>
       </c>
       <c r="AB5" t="n">
-        <v>809.3904532382521</v>
+        <v>1022.445136764034</v>
       </c>
       <c r="AC5" t="n">
-        <v>732.1433643678284</v>
+        <v>924.8644079220358</v>
       </c>
       <c r="AD5" t="n">
-        <v>591554.1263792329</v>
+        <v>747268.0672588872</v>
       </c>
       <c r="AE5" t="n">
-        <v>809390.4532382521</v>
+        <v>1022445.136764034</v>
       </c>
       <c r="AF5" t="n">
         <v>5.102832446456673e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>33</v>
+        <v>32.09490740740741</v>
       </c>
       <c r="AH5" t="n">
-        <v>732143.3643678285</v>
+        <v>924864.4079220358</v>
       </c>
     </row>
     <row r="6">
@@ -15502,28 +15502,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>592.7560434368283</v>
+        <v>748.4699843164826</v>
       </c>
       <c r="AB6" t="n">
-        <v>811.0349691812925</v>
+        <v>1024.089652707074</v>
       </c>
       <c r="AC6" t="n">
-        <v>733.6309300173577</v>
+        <v>926.3519735715651</v>
       </c>
       <c r="AD6" t="n">
-        <v>592756.0434368283</v>
+        <v>748469.9843164827</v>
       </c>
       <c r="AE6" t="n">
-        <v>811034.9691812925</v>
+        <v>1024089.652707074</v>
       </c>
       <c r="AF6" t="n">
         <v>5.102124977450677e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>33</v>
+        <v>32.09490740740741</v>
       </c>
       <c r="AH6" t="n">
-        <v>733630.9300173577</v>
+        <v>926351.973571565</v>
       </c>
     </row>
   </sheetData>
@@ -15799,28 +15799,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>634.3708711819241</v>
+        <v>850.9814505411305</v>
       </c>
       <c r="AB2" t="n">
-        <v>867.9742124187602</v>
+        <v>1164.350363282346</v>
       </c>
       <c r="AC2" t="n">
-        <v>785.1359717949713</v>
+        <v>1053.226398786677</v>
       </c>
       <c r="AD2" t="n">
-        <v>634370.8711819241</v>
+        <v>850981.4505411305</v>
       </c>
       <c r="AE2" t="n">
-        <v>867974.2124187602</v>
+        <v>1164350.363282346</v>
       </c>
       <c r="AF2" t="n">
         <v>8.375685152329688e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>48</v>
+        <v>47.44212962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>785135.9717949713</v>
+        <v>1053226.398786677</v>
       </c>
     </row>
   </sheetData>
@@ -16096,28 +16096,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>618.4549531293595</v>
+        <v>797.8398370603549</v>
       </c>
       <c r="AB2" t="n">
-        <v>846.1973511784929</v>
+        <v>1091.639663275424</v>
       </c>
       <c r="AC2" t="n">
-        <v>765.4374636274583</v>
+        <v>987.4551059383073</v>
       </c>
       <c r="AD2" t="n">
-        <v>618454.9531293595</v>
+        <v>797839.8370603549</v>
       </c>
       <c r="AE2" t="n">
-        <v>846197.3511784929</v>
+        <v>1091639.663275424</v>
       </c>
       <c r="AF2" t="n">
         <v>5.89561320902538e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.73611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>765437.4636274583</v>
+        <v>987455.1059383072</v>
       </c>
     </row>
     <row r="3">
@@ -16202,28 +16202,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>539.1901383159188</v>
+        <v>699.6214867181806</v>
       </c>
       <c r="AB3" t="n">
-        <v>737.7437346339137</v>
+        <v>957.2529832494585</v>
       </c>
       <c r="AC3" t="n">
-        <v>667.334508030287</v>
+        <v>865.8941020411295</v>
       </c>
       <c r="AD3" t="n">
-        <v>539190.1383159189</v>
+        <v>699621.4867181806</v>
       </c>
       <c r="AE3" t="n">
-        <v>737743.7346339137</v>
+        <v>957252.9832494585</v>
       </c>
       <c r="AF3" t="n">
         <v>6.475929885040735e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>34</v>
+        <v>33.44907407407407</v>
       </c>
       <c r="AH3" t="n">
-        <v>667334.508030287</v>
+        <v>865894.1020411295</v>
       </c>
     </row>
   </sheetData>
@@ -16499,28 +16499,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>765.3832214021998</v>
+        <v>966.0029629149849</v>
       </c>
       <c r="AB2" t="n">
-        <v>1047.231089847111</v>
+        <v>1321.727870903247</v>
       </c>
       <c r="AC2" t="n">
-        <v>947.2848244301678</v>
+        <v>1195.584017960958</v>
       </c>
       <c r="AD2" t="n">
-        <v>765383.2214021997</v>
+        <v>966002.9629149849</v>
       </c>
       <c r="AE2" t="n">
-        <v>1047231.089847111</v>
+        <v>1321727.870903247</v>
       </c>
       <c r="AF2" t="n">
         <v>4.73160920291644e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.76388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>947284.8244301678</v>
+        <v>1195584.017960958</v>
       </c>
     </row>
     <row r="3">
@@ -16605,28 +16605,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>555.4603205884846</v>
+        <v>717.8602703047811</v>
       </c>
       <c r="AB3" t="n">
-        <v>760.0053158090212</v>
+        <v>982.2080915909886</v>
       </c>
       <c r="AC3" t="n">
-        <v>687.4714751423676</v>
+        <v>888.4675298672586</v>
       </c>
       <c r="AD3" t="n">
-        <v>555460.3205884846</v>
+        <v>717860.2703047812</v>
       </c>
       <c r="AE3" t="n">
-        <v>760005.3158090212</v>
+        <v>982208.0915909886</v>
       </c>
       <c r="AF3" t="n">
         <v>5.850398573875446e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>33</v>
+        <v>32.96296296296297</v>
       </c>
       <c r="AH3" t="n">
-        <v>687471.4751423675</v>
+        <v>888467.5298672586</v>
       </c>
     </row>
     <row r="4">
@@ -16711,28 +16711,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>550.9577568362732</v>
+        <v>713.3577065525697</v>
       </c>
       <c r="AB4" t="n">
-        <v>753.8447094441519</v>
+        <v>976.0474852261194</v>
       </c>
       <c r="AC4" t="n">
-        <v>681.8988284024961</v>
+        <v>882.8948831273872</v>
       </c>
       <c r="AD4" t="n">
-        <v>550957.7568362732</v>
+        <v>713357.7065525696</v>
       </c>
       <c r="AE4" t="n">
-        <v>753844.709444152</v>
+        <v>976047.4852261194</v>
       </c>
       <c r="AF4" t="n">
         <v>5.897722997669362e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>33</v>
+        <v>32.69675925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>681898.8284024961</v>
+        <v>882894.8831273871</v>
       </c>
     </row>
   </sheetData>
